--- a/ressources/cleaners.xlsx
+++ b/ressources/cleaners.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Cleaner1" sheetId="1" state="visible" r:id="rId3"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="15">
   <si>
     <t xml:space="preserve">Time Slot</t>
   </si>
@@ -35,25 +35,37 @@
     <t xml:space="preserve">Wednesday</t>
   </si>
   <si>
-    <t xml:space="preserve">Thursday</t>
+    <t xml:space="preserve">Thurdsay</t>
   </si>
   <si>
     <t xml:space="preserve">Friday</t>
   </si>
   <si>
+    <t xml:space="preserve">Saturday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:00-10:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X</t>
+  </si>
+  <si>
     <t xml:space="preserve">10:00-11:00</t>
   </si>
   <si>
-    <t xml:space="preserve">X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:00-12:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:00-13:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13:00-14:00</t>
+    <t xml:space="preserve">11:30-12:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:00-12:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:00-13:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:30-14:00</t>
   </si>
 </sst>
 </file>
@@ -128,12 +140,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -260,82 +268,110 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="156" zoomScaleNormal="156" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="156" zoomScaleNormal="156" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
+      <c r="A2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>7</v>
+      <c r="A3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
+      <c r="A4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>7</v>
+      <c r="A5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -354,84 +390,140 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="156" zoomScaleNormal="156" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="156" zoomScaleNormal="156" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
+      <c r="A2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>7</v>
+      <c r="A3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
+      <c r="A4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="E5" s="1" t="s">
-        <v>7</v>
+      <c r="A5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
